--- a/parameter_files/base/de_dg_sw_lower.xlsx
+++ b/parameter_files/base/de_dg_sw_lower.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{E6F9DBFA-0F9F-4EE0-BB3F-AF4FDD6EC64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F687AA-B3A6-4CB0-9D47-0BCBCE02E4C1}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{E6F9DBFA-0F9F-4EE0-BB3F-AF4FDD6EC64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72A64B85-CB52-46AB-86EB-40A48AC5062B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4499E3F-FF19-49A3-9D2B-735605059EA7}"/>
   </bookViews>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>other dischargers</t>
   </si>
   <si>
     <t>Bureau of Reclamation</t>
-  </si>
-  <si>
-    <t>Legislature</t>
   </si>
   <si>
     <t>Friant Water Authority</t>
@@ -650,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA545B6-1FC0-43B8-8D79-1AA3D82BF6E7}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,22 +661,22 @@
     <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>0</v>
@@ -687,7 +684,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -698,7 +695,7 @@
     </row>
     <row r="3" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -709,7 +706,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -720,7 +717,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -731,7 +728,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -742,7 +739,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -753,7 +750,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -764,7 +761,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -775,7 +772,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -805,8 +802,12 @@
         <v>3</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -831,23 +832,23 @@
         <v>5</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
+      <c r="A16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-0.5</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -857,12 +858,8 @@
         <v>24</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-0.5</v>
-      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -882,7 +879,7 @@
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -890,13 +887,13 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
@@ -904,10 +901,10 @@
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
@@ -926,7 +923,7 @@
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -956,7 +953,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3"/>
@@ -977,8 +974,8 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="3"/>
@@ -988,17 +985,6 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
